--- a/app/reports/Best_Scoring_Team.xlsx
+++ b/app/reports/Best_Scoring_Team.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aashishj\Documents\ETL-Challenge\app\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aashishj\Documents\ETL-Challenge-1\app\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46EACC4-EDB3-49CE-9A60-B1C683CA3BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05279387-1366-4C25-AD4E-D0575CF113D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>Man City</t>
   </si>
   <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
     <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Man United</t>
   </si>
   <si>
     <t>season-1819</t>
@@ -614,25 +614,25 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -640,31 +640,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>38</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -672,31 +672,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>38</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>38</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>38</v>
@@ -783,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <v>89</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>38</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>38</v>
